--- a/Commons/InventoryWebApp/src/main/webapp/WEB-INF/Templates/类目管理模版.xlsx
+++ b/Commons/InventoryWebApp/src/main/webapp/WEB-INF/Templates/类目管理模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200"/>
+    <workbookView windowWidth="7095" windowHeight="6660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,15 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>姓名</t>
+    <t>类目名称</t>
   </si>
   <si>
-    <t>学籍号</t>
-  </si>
-  <si>
-    <t>陈豪</t>
+    <t>软件</t>
   </si>
 </sst>
 </file>
@@ -34,8 +31,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -63,6 +60,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,9 +95,93 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,98 +194,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -225,43 +222,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,140 +400,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -422,91 +419,6 @@
       </top>
       <bottom style="thin">
         <color theme="6" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="6" tint="0.399975585192419"/>
-      </top>
-      <bottom style="thin">
-        <color theme="6" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,8 +441,82 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,10 +528,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -557,7 +543,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -566,55 +552,73 @@
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,81 +627,57 @@
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1048,34 +1028,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4">
-        <v>20180101</v>
       </c>
     </row>
   </sheetData>
